--- a/control/process_intermittent_check_30034001_AMY_Y_75.xlsx
+++ b/control/process_intermittent_check_30034001_AMY_Y_75.xlsx
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12.95453548431396</v>
+        <v>12.75534152984619</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/control/process_intermittent_check_30034001_AMY_Y_75.xlsx
+++ b/control/process_intermittent_check_30034001_AMY_Y_75.xlsx
@@ -22,7 +22,7 @@
     <t>DIBS</t>
   </si>
   <si>
-    <t>Part done</t>
+    <t>Step done</t>
   </si>
   <si>
     <t>Duration time in seconds</t>
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12.75534152984619</v>
+        <v>18.92967009544373</v>
       </c>
     </row>
     <row r="4" spans="1:2">
